--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.300284845889576</v>
+        <v>-0.2957516057923159</v>
       </c>
       <c r="D2">
-        <v>0.7639970656664508</v>
+        <v>0.7701933032437294</v>
       </c>
       <c r="E2">
         <v>0.6397591882846237</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4468960786712431</v>
+        <v>-0.4501836421180653</v>
       </c>
       <c r="D3">
-        <v>0.6550077333379161</v>
+        <v>0.6569828885183546</v>
       </c>
       <c r="E3">
         <v>0.6397591882846237</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.852629047289711</v>
+        <v>1.76383606711743</v>
       </c>
       <c r="D4">
-        <v>0.0641109283304846</v>
+        <v>0.09164360164728524</v>
       </c>
       <c r="E4">
         <v>0.6397591882846237</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.410606148781638</v>
+        <v>0.4769451174299562</v>
       </c>
       <c r="D5">
-        <v>0.6814137471645918</v>
+        <v>0.6381047597614056</v>
       </c>
       <c r="E5">
         <v>0.6397591882846237</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.09455748360505123</v>
+        <v>-0.087852129854519</v>
       </c>
       <c r="D6">
-        <v>0.9246776044303169</v>
+        <v>0.9307889843913399</v>
       </c>
       <c r="E6">
         <v>0.6479444071427967</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.141708420560518</v>
+        <v>2.251226753375598</v>
       </c>
       <c r="D7">
-        <v>0.03236048503884459</v>
+        <v>0.03469407328537821</v>
       </c>
       <c r="E7">
         <v>0.6479444071427967</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.6927270822980133</v>
+        <v>0.6479829579037554</v>
       </c>
       <c r="D8">
-        <v>0.4885766396384601</v>
+        <v>0.5237017288343173</v>
       </c>
       <c r="E8">
         <v>0.6479444071427967</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.232311725749544</v>
+        <v>2.52898627634921</v>
       </c>
       <c r="D9">
-        <v>0.02572580879469855</v>
+        <v>0.01911523949051164</v>
       </c>
       <c r="E9">
         <v>0.650493285462886</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.848104364405987</v>
+        <v>1.224049879130315</v>
       </c>
       <c r="D10">
-        <v>0.3965007379582581</v>
+        <v>0.2338809143816261</v>
       </c>
       <c r="E10">
         <v>0.650493285462886</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.366809181729328</v>
+        <v>-1.539566243516282</v>
       </c>
       <c r="D11">
-        <v>0.1718681066257404</v>
+        <v>0.1379268892941832</v>
       </c>
       <c r="E11">
         <v>0.5966284536448648</v>
